--- a/biology/Botanique/Roseraie_internationale_de_Courtrai/Roseraie_internationale_de_Courtrai.xlsx
+++ b/biology/Botanique/Roseraie_internationale_de_Courtrai/Roseraie_internationale_de_Courtrai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La roseraie internationale de Courtrai (Internationale Rozentuin Kortrijk) est une roseraie et un parc d'un hectare qui se trouve en Belgique à Courtrai dans le quartier de Haut-Courtrai et le jardin du château 't Hooghe, en face de l'université des sciences appliquées Vives.
@@ -512,7 +524,9 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La roseraie internationale a été fondée en 1959 dans les jardins du château 't Hooghe. Elle a une superficie totale d'environ un hectare et montre aux visiteurs l'évolution de la culture des roses ainsi qu'une collection de différentes variétés de roses. De plus, cent à cent cinquante nouvelles créations de roses issues de maisons de sélection européennes sont plantées chaque année dans le jardin expérimental. 
 Fin juin, une inspection annuelle des roses a lieu dans la roseraie de Courtrai. Celle-ci se fait à chaque fois après que des spécimens expérimentaux ont été suivis pendant deux ans par un jury permanent et international. Le jury évalue à la fois l'aspect de la fleur et du feuillage, la résistance aux maladies et le parfum.
